--- a/biology/Zoologie/Amblysomus_hottentotus/Amblysomus_hottentotus.xlsx
+++ b/biology/Zoologie/Amblysomus_hottentotus/Amblysomus_hottentotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taupe dorée hottentote
 Amblysomus hottentotus, la Taupe dorée hottentote, est une espèce de mammifères de la famille des Chrysochloridae. Elle vit sur la côte Est de l'Afrique du Sud et est peut-être également présente au Swaziland.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (18 décembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (18 décembre 2021) :
 Amblysomus hottentotus hottentotus
 Amblysomus hottentotus iris Thomas &amp; Schwann, 1905
 Amblysomus hottentotus longiceps (Broom, 1907)
@@ -548,9 +562,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique valide complet (avec auteur) de ce taxon est Amblysomus hottentotus (A. Smith, 1829)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique valide complet (avec auteur) de ce taxon est Amblysomus hottentotus (A. Smith, 1829).
 </t>
         </is>
       </c>
